--- a/excels/pings/01alpha_20n_cambridge.xlsx
+++ b/excels/pings/01alpha_20n_cambridge.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01alpha_20n_cambridge'!$B$1:$C$161</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="10">
   <si>
     <t>ip</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>www.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>ertt avg</t>
   </si>
 </sst>
 </file>
@@ -869,15 +872,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -5068,6 +5072,15 @@
         <v>7.9080430482899997</v>
       </c>
     </row>
+    <row r="162" spans="1:8">
+      <c r="F162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="1">
+        <f>SUM(G2:G161)/ROWS(G2:G161)</f>
+        <v>0.28765751692468117</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:C161"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
